--- a/instance/zyjk/CHC/i/体重评估与判断/weightAssessmentRule.xlsx
+++ b/instance/zyjk/CHC/i/体重评估与判断/weightAssessmentRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" tabRatio="785" activeTab="3"/>
+    <workbookView windowWidth="27660" windowHeight="13160" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="14" r:id="rId1"/>
@@ -4518,8 +4518,8 @@
   <sheetPr/>
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.84615384615385" defaultRowHeight="16.8"/>
@@ -9810,10 +9810,10 @@
   <sheetPr/>
   <dimension ref="A1:X117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="17.6"/>

--- a/instance/zyjk/CHC/i/体重评估与判断/weightAssessmentRule.xlsx
+++ b/instance/zyjk/CHC/i/体重评估与判断/weightAssessmentRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13160" tabRatio="785"/>
+    <workbookView windowWidth="27660" windowHeight="13160" tabRatio="785" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="14" r:id="rId1"/>
@@ -788,7 +788,7 @@
     <t>体重超重或肥胖，体质指数BMI≥24KG/㎡</t>
   </si>
   <si>
-    <t>BMI≥24（BMI=体重KG/身高M的平方） and 年龄≥18 and 年龄&lt;65</t>
+    <t>BMI≥24(BMI=体重KG/身高M的平方) and 年龄≥18 and 年龄&lt;65</t>
   </si>
   <si>
     <t>BMI&gt;=24 and 年龄&gt;=18 and 年龄&lt;65</t>
@@ -803,7 +803,7 @@
     <t>体重正常，体质指数BMI&lt;24KG/㎡且≥18.5</t>
   </si>
   <si>
-    <t>BMI&lt;24且BMI≥18.5（BMI=体重KG/身高M的平方） and 年龄≥18 and 年龄&lt;65</t>
+    <t>BMI&lt;24且BMI≥18.5(BMI=体重KG/身高M的平方) and 年龄≥18 and 年龄&lt;65</t>
   </si>
   <si>
     <t>BMI&lt;24 and BMI&gt;=18.5 and 年龄&gt;=18 and 年龄&lt;65</t>
@@ -818,7 +818,7 @@
     <t>体重较低，体质指数BMI&lt;18.5KG/㎡</t>
   </si>
   <si>
-    <t>BMI&lt;18.5（BMI=体重KG/身高M的平方） and 年龄≥18 and 年龄&lt;65</t>
+    <t>BMI&lt;18.5(BMI=体重KG/身高M的平方) and 年龄≥18 and 年龄&lt;65</t>
   </si>
   <si>
     <t>BMI&lt;18.5 and 年龄&gt;=18 and 年龄&lt;65</t>
@@ -833,7 +833,7 @@
     <t>老年人体重超重或肥胖，体质指数BMI≥27KG/㎡</t>
   </si>
   <si>
-    <t>BMI≥24（BMI=体重KG/身高M的平方） and 年龄≥65</t>
+    <t>BMI≥24(BMI=体重KG/身高M的平方) and 年龄≥65</t>
   </si>
   <si>
     <t>BMI&gt;=24 and 年龄&gt;=65</t>
@@ -848,7 +848,7 @@
     <t>老年人体重正常，体质指数BMI&lt;20KG/㎡且≥27</t>
   </si>
   <si>
-    <t>BMI&lt;24且BMI≥18.5（BMI=体重KG/身高M的平方） and 年龄≥65</t>
+    <t>BMI&lt;24且BMI≥18.5(BMI=体重KG/身高M的平方) and 年龄≥65</t>
   </si>
   <si>
     <t>BMI&lt;24 and BMI&gt;=18.5 and 年龄&gt;=65</t>
@@ -863,7 +863,7 @@
     <t>老年人体重较低，体质指数BMI&lt;20KG/㎡</t>
   </si>
   <si>
-    <t>BMI&lt;18.5（BMI=体重KG/身高M的平方） and 年龄≥65</t>
+    <t>BMI&lt;18.5(BMI=体重KG/身高M的平方) and 年龄≥65</t>
   </si>
   <si>
     <t>BMI&lt;18.5 and 年龄&gt;=65</t>
@@ -872,10 +872,10 @@
     <t>TZ_STZB006</t>
   </si>
   <si>
-    <t>（14-18岁）体重超重或肥胖</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断学生体重超重或肥胖（14-18岁）</t>
+    <t>(14-18岁)体重超重或肥胖</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断学生体重超重或肥胖(14-18岁)</t>
   </si>
   <si>
     <t>(14≤年龄&lt;14.5 and 22.3≤BMI and 性别=男)
@@ -918,10 +918,10 @@
     <t>TZ_STZB007</t>
   </si>
   <si>
-    <t>（14-18岁）体重正常</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断学生体重正常（14-18岁）</t>
+    <t>(14-18岁)体重正常</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断学生体重正常(14-18岁)</t>
   </si>
   <si>
     <t>(14≤年龄&lt;14.5 and 16.4≤BMI&lt;22.3 and 性别=男)
@@ -967,10 +967,10 @@
     <t>TZ_STZB008</t>
   </si>
   <si>
-    <t>（14-18岁）体重偏低</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断学生体重偏低（14-18岁）</t>
+    <t>(14-18岁)体重偏低</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断学生体重偏低(14-18岁)</t>
   </si>
   <si>
     <t>(14≤年龄&lt;14.5 and 16.4&gt;BMI and 性别=男)
@@ -1016,7 +1016,7 @@
     <t>TZ_STZB009</t>
   </si>
   <si>
-    <t>（11-14岁）体重超重或肥胖</t>
+    <t>(11-14岁)体重超重或肥胖</t>
   </si>
   <si>
     <t>(11≤年龄&lt;11.5 and 19.9≤BMI and 性别=男)
@@ -1050,10 +1050,10 @@
     <t>TZ_STZB010</t>
   </si>
   <si>
-    <t>（11-14岁）体重正常</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断学生体重正常（11-14岁）</t>
+    <t>(11-14岁)体重正常</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断学生体重正常(11-14岁)</t>
   </si>
   <si>
     <t>(11≤年龄&lt;11.5 and 14.9≤BMI&lt;19.9 and 性别=男)
@@ -1087,10 +1087,10 @@
     <t>TZ_STZB011</t>
   </si>
   <si>
-    <t>（11-14岁）体重偏低</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断学生体重偏低（11-14岁）</t>
+    <t>(11-14岁)体重偏低</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断学生体重偏低(11-14岁)</t>
   </si>
   <si>
     <t>(11≤年龄&lt;11.5 and 14.9&gt;BMI and 性别=男)
@@ -1124,10 +1124,10 @@
     <t>TZ_STZB012</t>
   </si>
   <si>
-    <t>（7-11岁）体重超重或肥胖</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断学生体重超重或肥胖（7-11岁）</t>
+    <t>(7-11岁)体重超重或肥胖</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断学生体重超重或肥胖(7-11岁)</t>
   </si>
   <si>
     <t>(7≤年龄&lt;7.5 and 17.0≤BMI and 性别=男)
@@ -1169,10 +1169,10 @@
     <t>TZ_STZB013</t>
   </si>
   <si>
-    <t>（7-11岁）体重正常</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断学生体重正常（7-11岁）</t>
+    <t>(7-11岁)体重正常</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断学生体重正常(7-11岁)</t>
   </si>
   <si>
     <t>(7≤年龄&lt;7.5 and 13.9≤BMI&lt;17.0 and 性别=男)
@@ -1214,10 +1214,10 @@
     <t>TZ_STZB014</t>
   </si>
   <si>
-    <t>（7-11岁）体重偏低</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断学生体重偏低（7-11岁）</t>
+    <t>(7-11岁)体重偏低</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断学生体重偏低(7-11岁)</t>
   </si>
   <si>
     <t>(7≤年龄&lt;8 and 13.9&gt;BMI and 性别=男)
@@ -1255,10 +1255,10 @@
     <t>TZ_STZB015</t>
   </si>
   <si>
-    <t>（73-86月龄）体重超重或肥胖</t>
-  </si>
-  <si>
-    <t>按照性别和年龄段判断儿童体重超重或肥胖（73-86月龄）</t>
+    <t>(73-86月龄)体重超重或肥胖</t>
+  </si>
+  <si>
+    <t>按照性别和年龄段判断儿童体重超重或肥胖(73-86月龄)</t>
   </si>
   <si>
     <t>(73月≤年龄&lt;79月 and 17.1≤BMI and 性别=男)
@@ -1276,10 +1276,10 @@
     <t>TZ_STZB046</t>
   </si>
   <si>
-    <t>（73-86月龄）体重正常</t>
-  </si>
-  <si>
-    <t>按照性别和年龄段判断儿童体重正常（73-86月龄）</t>
+    <t>(73-86月龄)体重正常</t>
+  </si>
+  <si>
+    <t>按照性别和年龄段判断儿童体重正常(73-86月龄)</t>
   </si>
   <si>
     <t>(73月≤年龄&lt;79月 and 13.4≤BMI&lt;17.1 and 性别=男)  
@@ -1297,10 +1297,10 @@
     <t>TZ_STZB047</t>
   </si>
   <si>
-    <t>（73-86月龄）体重偏低</t>
-  </si>
-  <si>
-    <t>按照性别和年龄段判断儿童体重偏低（73-86月龄）</t>
+    <t>(73-86月龄)体重偏低</t>
+  </si>
+  <si>
+    <t>按照性别和年龄段判断儿童体重偏低(73-86月龄)</t>
   </si>
   <si>
     <t>(73月≤年龄&lt;79月 and 13.4&gt;BMI and 性别=男)
@@ -1318,10 +1318,10 @@
     <t>TZ_STZB048</t>
   </si>
   <si>
-    <t>（60-72月龄）体重超重或肥胖</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖（60-72月龄）</t>
+    <t>(60-72月龄)体重超重或肥胖</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖(60-72月龄)</t>
   </si>
   <si>
     <t>(60月≤年龄&lt;63月 and 16.7≤BMI and 性别=男)
@@ -1351,10 +1351,10 @@
     <t>TZ_STZB016</t>
   </si>
   <si>
-    <t>（60-72月龄）体重正常</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重正常（60-72月龄）</t>
+    <t>(60-72月龄)体重正常</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重正常(60-72月龄)</t>
   </si>
   <si>
     <t>(60月≤年龄&lt;63月 and 13.2≤BMI&lt;16.7 and 性别=男)
@@ -1384,10 +1384,10 @@
     <t>TZ_STZB017</t>
   </si>
   <si>
-    <t>（60-72月龄）体重偏低</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重偏低（60-72月龄）</t>
+    <t>(60-72月龄)体重偏低</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重偏低(60-72月龄)</t>
   </si>
   <si>
     <t>(60月≤年龄&lt;63月 and 13.2&gt;BMI and 性别=男)
@@ -1417,10 +1417,10 @@
     <t>TZ_STZB018</t>
   </si>
   <si>
-    <t>（48-60月龄）体重超重或肥胖</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖（48-60月龄）</t>
+    <t>(48-60月龄)体重超重或肥胖</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖(48-60月龄)</t>
   </si>
   <si>
     <t>(48月≤年龄&lt;51月 and 16.6≤BMI and 性别=男)
@@ -1446,10 +1446,10 @@
     <t>TZ_STZB019</t>
   </si>
   <si>
-    <t>（48-60月龄）体重正常</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重正常（48-60月龄）</t>
+    <t>(48-60月龄)体重正常</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重正常(48-60月龄)</t>
   </si>
   <si>
     <t>(48月≤年龄&lt;51月 and 13.3≤BMI&lt;16.6 and 性别=男)
@@ -1475,10 +1475,10 @@
     <t>TZ_STZB020</t>
   </si>
   <si>
-    <t>（48-60月龄）体重偏低</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重偏低（48-60月龄）</t>
+    <t>(48-60月龄)体重偏低</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重偏低(48-60月龄)</t>
   </si>
   <si>
     <t>(48月≤年龄&lt;51月 and 13.3&gt;BMI and 性别=男)
@@ -1504,10 +1504,10 @@
     <t>TZ_STZB021</t>
   </si>
   <si>
-    <t>（36-48月龄）体重超重或肥胖</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖（36-48月龄）</t>
+    <t>(36-48月龄)体重超重或肥胖</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖(36-48月龄)</t>
   </si>
   <si>
     <t>(36月≤年龄&lt;39月 and 16.8≤BMI and 性别=男)
@@ -1533,10 +1533,10 @@
     <t>TZ_STZB022</t>
   </si>
   <si>
-    <t>（36-48月龄）体重正常</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重正常（36-48月龄）</t>
+    <t>(36-48月龄)体重正常</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重正常(36-48月龄)</t>
   </si>
   <si>
     <t>(36月≤年龄&lt;39月 and 13.6≤BMI&lt;16.8 and 性别=男)
@@ -1562,10 +1562,10 @@
     <t>TZ_STZB023</t>
   </si>
   <si>
-    <t>（36-48月龄）体重偏低</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重偏低（36-48月龄）</t>
+    <t>(36-48月龄)体重偏低</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重偏低(36-48月龄)</t>
   </si>
   <si>
     <t>(36月≤年龄&lt;39月 and 13.6&gt;BMI and 性别=男)
@@ -1591,10 +1591,10 @@
     <t>TZ_STZB024</t>
   </si>
   <si>
-    <t>（30-36月龄）体重超重或肥胖</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖（30-36月龄）</t>
+    <t>(30-36月龄)体重超重或肥胖</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖(30-36月龄)</t>
   </si>
   <si>
     <t>(30月≤年龄&lt;33月 and 17.0≤BMI and 性别=男)
@@ -1612,10 +1612,10 @@
     <t>TZ_STZB025</t>
   </si>
   <si>
-    <t>（30-36月龄）体重正常</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重正常（30-36月龄）</t>
+    <t>(30-36月龄)体重正常</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重正常(30-36月龄)</t>
   </si>
   <si>
     <t>(30月≤年龄&lt;33月 and 13.7≤BMI&lt;17 and 性别=男)
@@ -1633,10 +1633,10 @@
     <t>TZ_STZB026</t>
   </si>
   <si>
-    <t>（30-36月龄）体重偏低</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重偏低（30-36月龄）</t>
+    <t>(30-36月龄)体重偏低</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重偏低(30-36月龄)</t>
   </si>
   <si>
     <t>(30月≤年龄&lt;33月 and 13.7&gt;BMI and 性别=男)
@@ -1654,10 +1654,10 @@
     <t>TZ_STZB027</t>
   </si>
   <si>
-    <t>（24-30月龄）体重超重或肥胖</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖（24-30月龄）</t>
+    <t>(24-30月龄)体重超重或肥胖</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖(24-30月龄)</t>
   </si>
   <si>
     <t>(24月≤年龄&lt;27月 and 17.4≤BMI and 性别=男)
@@ -1675,10 +1675,10 @@
     <t>TZ_STZB028</t>
   </si>
   <si>
-    <t>（24-30月龄）体重正常</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重正常（24-30月龄）</t>
+    <t>(24-30月龄)体重正常</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重正常(24-30月龄)</t>
   </si>
   <si>
     <t>(24月≤年龄&lt;27月 and 14≤BMI&lt;17.4 and 性别=男)
@@ -1696,10 +1696,10 @@
     <t>TZ_STZB029</t>
   </si>
   <si>
-    <t>（24-30月龄）体重偏低</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重偏低（24-30月龄）</t>
+    <t>(24-30月龄)体重偏低</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重偏低(24-30月龄)</t>
   </si>
   <si>
     <t>(24月≤年龄&lt;27月 and 14&gt;BMI and 性别=男)
@@ -1717,10 +1717,10 @@
     <t>TZ_STZB030</t>
   </si>
   <si>
-    <t>（18-24月龄）体重超重或肥胖</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖（18-24月龄）</t>
+    <t>(18-24月龄)体重超重或肥胖</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖(18-24月龄)</t>
   </si>
   <si>
     <t>(年龄=18月 and 17.7≤BMI and 性别=男)
@@ -1754,10 +1754,10 @@
     <t>TZ_STZB031</t>
   </si>
   <si>
-    <t>（18-24月龄）体重正常</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重正常（18-24月龄）</t>
+    <t>(18-24月龄)体重正常</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重正常(18-24月龄)</t>
   </si>
   <si>
     <t>(年龄=18月 and 14.2≤BMI&lt;17.7 and 性别=男)
@@ -1791,10 +1791,10 @@
     <t>TZ_STZB032</t>
   </si>
   <si>
-    <t>（18-24月龄）体重偏低</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重偏低（18-24月龄）</t>
+    <t>(18-24月龄)体重偏低</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重偏低(18-24月龄)</t>
   </si>
   <si>
     <t>(年龄=18月 and 14.2&gt;BMI and 性别=男)
@@ -1814,10 +1814,10 @@
     <t>TZ_STZB033</t>
   </si>
   <si>
-    <t>（12-18月龄）体重超重或肥胖</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖（12-18月龄）</t>
+    <t>(12-18月龄)体重超重或肥胖</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖(12-18月龄)</t>
   </si>
   <si>
     <t>(年龄=12月 and 18.6≤BMI and 性别=男)
@@ -1851,10 +1851,10 @@
     <t>TZ_STZB034</t>
   </si>
   <si>
-    <t>（12-18月龄）体重正常</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重正常（12-18月龄）</t>
+    <t>(12-18月龄)体重正常</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重正常(12-18月龄)</t>
   </si>
   <si>
     <t>(年龄=12月 and 14.8≤BMI&lt;18.6 and 性别=男)
@@ -1888,10 +1888,10 @@
     <t>TZ_STZB035</t>
   </si>
   <si>
-    <t>（12-18月龄）体重偏低</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重偏低（12-18月龄）</t>
+    <t>(12-18月龄)体重偏低</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重偏低(12-18月龄)</t>
   </si>
   <si>
     <t>(年龄=12月 and 14.8&gt;BMI and 性别=男)
@@ -1911,10 +1911,10 @@
     <t>TZ_STZB036</t>
   </si>
   <si>
-    <t>（8-12月龄）体重超重或肥胖</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖（8-12月龄）</t>
+    <t>(8-12月龄)体重超重或肥胖</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖(8-12月龄)</t>
   </si>
   <si>
     <t>(年龄=9月 and 19.1≤BMI and 性别=男)
@@ -1936,10 +1936,10 @@
     <t>TZ_STZB037</t>
   </si>
   <si>
-    <t>（8-12月龄）体重正常</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重正常（8-12月龄）</t>
+    <t>(8-12月龄)体重正常</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重正常(8-12月龄)</t>
   </si>
   <si>
     <t>(年龄=9月 and 15.1≤BMI&lt;19.1 and 性别=男)
@@ -1961,10 +1961,10 @@
     <t>TZ_STZB038</t>
   </si>
   <si>
-    <t>（8-12月龄）体重偏低</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重偏低（8-12月龄）</t>
+    <t>(8-12月龄)体重偏低</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重偏低(8-12月龄)</t>
   </si>
   <si>
     <t>(年龄=9月 and 15.1&gt;BMI and 性别=男)
@@ -1978,10 +1978,10 @@
     <t>TZ_STZB039</t>
   </si>
   <si>
-    <t>（6-8月龄）体重超重或肥胖</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖（6-8月龄）</t>
+    <t>(6-8月龄)体重超重或肥胖</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖(6-8月龄)</t>
   </si>
   <si>
     <t>(年龄=6月 and 19.5≤BMI and 性别=男)
@@ -2003,10 +2003,10 @@
     <t>TZ_STZB040</t>
   </si>
   <si>
-    <t>（6-8月龄）体重正常</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重正常（6-8月龄）</t>
+    <t>(6-8月龄)体重正常</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重正常(6-8月龄)</t>
   </si>
   <si>
     <t>(年龄=6月 and 15.2≤BMI&lt;19.5 and 性别=男)
@@ -2028,10 +2028,10 @@
     <t>TZ_STZB041</t>
   </si>
   <si>
-    <t>（6-8月龄）体重偏低</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重偏低（6-8月龄）</t>
+    <t>(6-8月龄)体重偏低</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重偏低(6-8月龄)</t>
   </si>
   <si>
     <t>(年龄=6月 and 15.2&gt;BMI and 性别=男)
@@ -2045,10 +2045,10 @@
     <t>TZ_STZB042</t>
   </si>
   <si>
-    <t>（6月龄以下）体重超重或肥胖</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖（6月龄以下）</t>
+    <t>(6月龄以下)体重超重或肥胖</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重超重或肥胖(6月龄以下)</t>
   </si>
   <si>
     <t>(年龄=1月 and 16.4≤BMI and 性别=男)
@@ -2078,10 +2078,10 @@
     <t>TZ_STZB043</t>
   </si>
   <si>
-    <t>（6月龄以下）体重正常</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重正常（6月龄以下）</t>
+    <t>(6月龄以下)体重正常</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重正常(6月龄以下)</t>
   </si>
   <si>
     <t>(年龄=1月 and 12.9≤BMI&lt;16.4 and 性别=男)
@@ -2111,10 +2111,10 @@
     <t>TZ_STZB044</t>
   </si>
   <si>
-    <t>（6月龄以下）体重偏低</t>
-  </si>
-  <si>
-    <t>按照儿童性别和年龄段判断儿童体重偏低（6月龄以下）</t>
+    <t>(6月龄以下)体重偏低</t>
+  </si>
+  <si>
+    <t>按照儿童性别和年龄段判断儿童体重偏低(6月龄以下)</t>
   </si>
   <si>
     <t>(年龄=1月 and 12.9&gt;BMI and 性别=男)
@@ -2240,7 +2240,7 @@
     <t>7-11岁</t>
   </si>
   <si>
-    <t>（学生年龄≥7 and 学生年龄&lt;11）</t>
+    <t>(学生年龄≥7 and 学生年龄&lt;11)</t>
   </si>
   <si>
     <t>年龄&gt;=7 and 年龄&lt;11</t>
@@ -2252,10 +2252,10 @@
     <t>11-17岁</t>
   </si>
   <si>
-    <t>（学生年龄≥11 and 学生年龄≤18）</t>
-  </si>
-  <si>
-    <t>（年龄≥11 and 年龄＜18） or （年龄=18）</t>
+    <t>(学生年龄≥11 and 学生年龄≤18)</t>
+  </si>
+  <si>
+    <t>(年龄&gt;=11 and 年龄＜18) or (年龄=18)</t>
   </si>
   <si>
     <t>TZ_AGE004</t>
@@ -4518,7 +4518,7 @@
   <sheetPr/>
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7129,10 +7129,10 @@
   <sheetPr codeName="评估因素规则库"/>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="97" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
